--- a/estudo bloqueios py.xlsx
+++ b/estudo bloqueios py.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N5802702.NETSERVICOS\Documents\estudo bloqueios\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93348059-4EEB-4063-A6DA-257ADD3B72B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B967B5-B2B9-4067-817C-0456183C884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{54F12373-60D2-4403-B424-362580E1DBE0}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,30 +164,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +185,9 @@
   <dxfs count="3">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -223,9 +213,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -240,18 +227,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}" name="Tabela1" displayName="Tabela1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}" name="Tabela1" displayName="Tabela1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:G17" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A5051D7B-3D21-4C31-A7F8-CBBB31885E82}" name="Bloqueios" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A5051D7B-3D21-4C31-A7F8-CBBB31885E82}" name="Bloqueios" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{EA91ABA9-3801-4720-BB46-0CB1B066B80D}" name="jan"/>
     <tableColumn id="3" xr3:uid="{8498F30D-FB84-4BDF-9376-7474C9F168E8}" name="fev"/>
     <tableColumn id="4" xr3:uid="{39616BC4-073B-47D7-9717-7780EAADD4F5}" name="mar"/>
     <tableColumn id="5" xr3:uid="{A4E81FB9-C926-4E14-9AFD-305831772022}" name="abr"/>
     <tableColumn id="6" xr3:uid="{CEA19C2E-4038-40C4-A398-13B631A5926C}" name="Total Geral"/>
-    <tableColumn id="7" xr3:uid="{F194FB94-D8C2-4A6B-8DEA-800D2526052D}" name="Porcentagem" dataDxfId="0">
-      <calculatedColumnFormula>F2/$F$17</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F194FB94-D8C2-4A6B-8DEA-800D2526052D}" name="Porcentagem" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -574,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8052A2E5-F142-4C23-A5CC-37E0328314F2}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +572,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -606,203 +591,203 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>848</v>
+      </c>
+      <c r="C2">
+        <v>784</v>
+      </c>
+      <c r="D2">
+        <v>801</v>
+      </c>
+      <c r="E2">
+        <v>657</v>
+      </c>
+      <c r="F2">
+        <v>3090</v>
+      </c>
+      <c r="G2" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>0.39317979386690416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1075</v>
-      </c>
-      <c r="C2">
-        <v>980</v>
-      </c>
-      <c r="D2">
-        <v>707</v>
-      </c>
-      <c r="E2">
-        <v>357</v>
-      </c>
-      <c r="F2">
-        <v>3119</v>
-      </c>
-      <c r="G2" s="6">
-        <f>F2/$F$17</f>
-        <v>0.30004810004810006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B3">
-        <v>706</v>
+        <v>578</v>
       </c>
       <c r="C3">
-        <v>644</v>
+        <v>465</v>
       </c>
       <c r="D3">
-        <v>641</v>
+        <v>316</v>
       </c>
       <c r="E3">
-        <v>496</v>
+        <v>249</v>
       </c>
       <c r="F3">
-        <v>2487</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G17" si="0">F3/$F$17</f>
-        <v>0.23924963924963924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+      <c r="G3" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>0.20460618399287442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>571</v>
+        <v>412</v>
       </c>
       <c r="C4">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="D4">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="E4">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F4">
-        <v>1762</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16950456950456949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+      <c r="G4" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>0.17330449166560633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>388</v>
+        <v>184</v>
       </c>
       <c r="C5">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="D5">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="E5">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="F5">
-        <v>1337</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.12861952861952861</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="G5" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>8.5125334011960804E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="C6">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F6">
-        <v>602</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>5.7912457912457915E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="G6" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>5.4968825550324465E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>375</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>3.6075036075036072E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="G7" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>4.2880773635322562E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>364</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>3.5016835016835016E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G8" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>1.2597022521949358E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>119</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1447811447811448E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>1.1197353352843874E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -810,72 +795,72 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>70</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>6.7340067340067337E-3</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>8.3980150146329043E-3</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>43</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>4.1366041366041363E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>4.0717648555795901E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>4.1366041366041363E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>3.3083089451584171E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -886,103 +871,101 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>27</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5974025974025974E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G13" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>3.0538236416846926E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>2.6720956864741061E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>2.4050024050024051E-3</v>
-      </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>21</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>2.0202020202020202E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>3.8172795521058657E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <v>2.5448530347372438E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2316</v>
+      </c>
+      <c r="C17">
+        <v>2075</v>
+      </c>
+      <c r="D17">
+        <v>1872</v>
+      </c>
+      <c r="E17">
+        <v>1596</v>
+      </c>
+      <c r="F17">
+        <v>7859</v>
+      </c>
+      <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>9.6200096200096195E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3373</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2974</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2436</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1612</v>
-      </c>
-      <c r="F17" s="4">
-        <v>10395</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/estudo bloqueios py.xlsx
+++ b/estudo bloqueios py.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N5802702.NETSERVICOS\Documents\estudo bloqueios\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B967B5-B2B9-4067-817C-0456183C884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F24617-E772-4093-A26F-14D37DBB4728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{54F12373-60D2-4403-B424-362580E1DBE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>jan</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>TRECHO PARCIAL SEM REDE</t>
-  </si>
-  <si>
-    <t>MDU GPON - NECESSARIO</t>
   </si>
   <si>
     <t>MDU SEM BACKBONE</t>
@@ -168,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -177,7 +174,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8052A2E5-F142-4C23-A5CC-37E0328314F2}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -592,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -615,7 +611,7 @@
         <v>3090</v>
       </c>
       <c r="G2" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>0.39317979386690416</v>
       </c>
     </row>
@@ -639,13 +635,13 @@
         <v>1608</v>
       </c>
       <c r="G3" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>0.20460618399287442</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>412</v>
@@ -663,13 +659,13 @@
         <v>1362</v>
       </c>
       <c r="G4" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>0.17330449166560633</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>184</v>
@@ -687,13 +683,13 @@
         <v>669</v>
       </c>
       <c r="G5" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>8.5125334011960804E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>121</v>
@@ -711,13 +707,13 @@
         <v>432</v>
       </c>
       <c r="G6" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>5.4968825550324465E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>85</v>
@@ -735,13 +731,13 @@
         <v>337</v>
       </c>
       <c r="G7" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>4.2880773635322562E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -759,13 +755,13 @@
         <v>99</v>
       </c>
       <c r="G8" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>1.2597022521949358E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -783,13 +779,13 @@
         <v>88</v>
       </c>
       <c r="G9" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>1.1197353352843874E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -807,14 +803,14 @@
         <v>66</v>
       </c>
       <c r="G10" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>8.3980150146329043E-3</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -832,37 +828,37 @@
         <v>32</v>
       </c>
       <c r="G11" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>4.0717648555795901E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
       <c r="D12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
-        <v>3.3083089451584171E-3</v>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
+        <v>3.6900369003690036E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -877,13 +873,13 @@
         <v>24</v>
       </c>
       <c r="G13" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>3.0538236416846926E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -901,71 +897,52 @@
         <v>21</v>
       </c>
       <c r="G14" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
         <v>2.6720956864741061E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
-        <v>3.8172795521058657E-4</v>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
+        <v>2.5448530347372438E-4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2316</v>
+      </c>
+      <c r="C16">
+        <v>2075</v>
+      </c>
+      <c r="D16">
+        <v>1872</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1596</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>7859</v>
       </c>
       <c r="G16" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$17</f>
-        <v>2.5448530347372438E-4</v>
+        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>2316</v>
-      </c>
-      <c r="C17">
-        <v>2075</v>
-      </c>
-      <c r="D17">
-        <v>1872</v>
-      </c>
-      <c r="E17">
-        <v>1596</v>
-      </c>
-      <c r="F17">
-        <v>7859</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="G17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/estudo bloqueios py.xlsx
+++ b/estudo bloqueios py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N5802702.NETSERVICOS\Documents\estudo bloqueios\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F24617-E772-4093-A26F-14D37DBB4728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB23513-1540-46DB-BD13-E4DB2E894437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{54F12373-60D2-4403-B424-362580E1DBE0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{54F12373-60D2-4403-B424-362580E1DBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,6 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,8 +224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}" name="Tabela1" displayName="Tabela1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:G17" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}" name="Tabela1" displayName="Tabela1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G16" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A5051D7B-3D21-4C31-A7F8-CBBB31885E82}" name="Bloqueios" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{EA91ABA9-3801-4720-BB46-0CB1B066B80D}" name="jan"/>
@@ -555,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8052A2E5-F142-4C23-A5CC-37E0328314F2}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,9 +941,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="G17" s="4"/>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/estudo bloqueios py.xlsx
+++ b/estudo bloqueios py.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N5802702.NETSERVICOS\Documents\estudo bloqueios\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB23513-1540-46DB-BD13-E4DB2E894437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E7993-B2A3-4868-967E-386671A6BDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{54F12373-60D2-4403-B424-362580E1DBE0}"/>
+    <workbookView xWindow="-19995" yWindow="1845" windowWidth="19095" windowHeight="10035" xr2:uid="{54F12373-60D2-4403-B424-362580E1DBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>fev</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>abr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Total Geral</t>
   </si>
@@ -99,13 +87,28 @@
   </si>
   <si>
     <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Fev</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>Mai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +118,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -155,10 +150,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -167,48 +162,46 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,16 +217,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}" name="Tabela1" displayName="Tabela1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:G16" xr:uid="{EA0B251F-0945-4AE8-8A9C-CEBCEEC61C79}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A5051D7B-3D21-4C31-A7F8-CBBB31885E82}" name="Bloqueios" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{EA91ABA9-3801-4720-BB46-0CB1B066B80D}" name="jan"/>
-    <tableColumn id="3" xr3:uid="{8498F30D-FB84-4BDF-9376-7474C9F168E8}" name="fev"/>
-    <tableColumn id="4" xr3:uid="{39616BC4-073B-47D7-9717-7780EAADD4F5}" name="mar"/>
-    <tableColumn id="5" xr3:uid="{A4E81FB9-C926-4E14-9AFD-305831772022}" name="abr"/>
-    <tableColumn id="6" xr3:uid="{CEA19C2E-4038-40C4-A398-13B631A5926C}" name="Total Geral"/>
-    <tableColumn id="7" xr3:uid="{F194FB94-D8C2-4A6B-8DEA-800D2526052D}" name="Porcentagem" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D19507F-4E28-4A90-9757-912983C601B4}" name="Tabela2" displayName="Tabela2" ref="A1:H16" totalsRowShown="0">
+  <autoFilter ref="A1:H16" xr:uid="{2D19507F-4E28-4A90-9757-912983C601B4}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FF5D5A98-2532-4ED6-A857-07407338F029}" name="Bloqueios" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F3A8491C-9536-4563-ABA2-AA9B9589180A}" name="Jan" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E8446956-BAD1-4359-B54F-DF3FE74A83E2}" name="Fev" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{CCBB8461-C55D-49B2-A3BF-4B8DE122D594}" name="Mar" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{60DE034D-6F21-417C-9626-5CB26DA0ADFD}" name="Abr" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A480F4B3-C732-4902-A16C-448359E4843F}" name="Mai" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{42F4FDCA-9662-406B-ADF4-D794425DA925}" name="Total Geral" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A5774CBB-C55C-49EC-833C-6BC07CEDE74E}" name="Porcentagem" dataDxfId="0">
+      <calculatedColumnFormula>G2/$G$16</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,394 +552,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8052A2E5-F142-4C23-A5CC-37E0328314F2}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" customWidth="1"/>
+    <col min="11" max="11" width="5.6328125" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="32" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>848</v>
+      </c>
+      <c r="C2" s="5">
+        <v>784</v>
+      </c>
+      <c r="D2" s="5">
+        <v>801</v>
+      </c>
+      <c r="E2" s="5">
+        <v>756</v>
+      </c>
+      <c r="F2" s="5">
+        <v>261</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3450</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H16" si="0">G2/$G$16</f>
+        <v>0.3954607977991747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="5">
+        <v>578</v>
+      </c>
+      <c r="C3" s="5">
+        <v>465</v>
+      </c>
+      <c r="D3" s="5">
+        <v>316</v>
+      </c>
+      <c r="E3" s="5">
+        <v>291</v>
+      </c>
+      <c r="F3" s="5">
+        <v>66</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1716</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19669876203576342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>412</v>
+      </c>
+      <c r="C4" s="5">
+        <v>350</v>
+      </c>
+      <c r="D4" s="5">
+        <v>305</v>
+      </c>
+      <c r="E4" s="5">
+        <v>344</v>
+      </c>
+      <c r="F4" s="5">
+        <v>139</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1550</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17767079321412196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>184</v>
+      </c>
+      <c r="C5" s="5">
+        <v>196</v>
+      </c>
+      <c r="D5" s="5">
+        <v>173</v>
+      </c>
+      <c r="E5" s="5">
+        <v>163</v>
+      </c>
+      <c r="F5" s="5">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5">
+        <v>755</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6542870243007788E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5">
+        <v>122</v>
+      </c>
+      <c r="D6" s="5">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>469</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3759743237047228E-2</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>85</v>
+      </c>
+      <c r="C7" s="5">
+        <v>79</v>
+      </c>
+      <c r="D7" s="5">
+        <v>92</v>
+      </c>
+      <c r="E7" s="5">
+        <v>93</v>
+      </c>
+      <c r="F7" s="5">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5">
+        <v>375</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2984869325997252E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>112</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2838147638697846E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>94</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0774873911049978E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G10" s="5">
+        <v>70</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0238422741861527E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8143053645116922E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G12" s="5">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2411737734983955E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>848</v>
-      </c>
-      <c r="C2">
-        <v>784</v>
-      </c>
-      <c r="D2">
-        <v>801</v>
-      </c>
-      <c r="E2">
-        <v>657</v>
-      </c>
-      <c r="F2">
-        <v>3090</v>
-      </c>
-      <c r="G2" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>0.39317979386690416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>578</v>
-      </c>
-      <c r="C3">
-        <v>465</v>
-      </c>
-      <c r="D3">
-        <v>316</v>
-      </c>
-      <c r="E3">
-        <v>249</v>
-      </c>
-      <c r="F3">
-        <v>1608</v>
-      </c>
-      <c r="G3" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>0.20460618399287442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>412</v>
-      </c>
-      <c r="C4">
-        <v>350</v>
-      </c>
-      <c r="D4">
-        <v>305</v>
-      </c>
-      <c r="E4">
-        <v>295</v>
-      </c>
-      <c r="F4">
-        <v>1362</v>
-      </c>
-      <c r="G4" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>0.17330449166560633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>184</v>
-      </c>
-      <c r="C5">
-        <v>196</v>
-      </c>
-      <c r="D5">
-        <v>170</v>
-      </c>
-      <c r="E5">
-        <v>119</v>
-      </c>
-      <c r="F5">
-        <v>669</v>
-      </c>
-      <c r="G5" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>8.5125334011960804E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4387895460797797E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>121</v>
-      </c>
-      <c r="C6">
-        <v>122</v>
-      </c>
-      <c r="D6">
-        <v>101</v>
-      </c>
-      <c r="E6">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>432</v>
-      </c>
-      <c r="G6" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>5.4968825550324465E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>85</v>
-      </c>
-      <c r="C7">
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <v>92</v>
-      </c>
-      <c r="E7">
-        <v>81</v>
-      </c>
-      <c r="F7">
-        <v>337</v>
-      </c>
-      <c r="G7" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>4.2880773635322562E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>99</v>
-      </c>
-      <c r="G8" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>1.2597022521949358E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>88</v>
-      </c>
-      <c r="G9" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>1.1197353352843874E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>66</v>
-      </c>
-      <c r="G10" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>8.3980150146329043E-3</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>4.0717648555795901E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5217790004585052E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>3.6900369003690036E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2925263640531865E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2316</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2075</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1875</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1874</v>
+      </c>
+      <c r="F16" s="4">
+        <v>584</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8724</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="F13">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>3.0538236416846926E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>2.6720956864741061E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>2.5448530347372438E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2316</v>
-      </c>
-      <c r="C16">
-        <v>2075</v>
-      </c>
-      <c r="D16">
-        <v>1872</v>
-      </c>
-      <c r="E16">
-        <v>1596</v>
-      </c>
-      <c r="F16">
-        <v>7859</v>
-      </c>
-      <c r="G16" s="4">
-        <f>Tabela1[[#This Row],[Total Geral]]/$F$16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="G23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
